--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\.git\myProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBAE1D4-3D7E-41EE-97D6-449E3315FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0714816-18CE-4BAC-A736-BE98CEBE43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>No:</t>
   </si>
@@ -97,13 +97,34 @@
   </si>
   <si>
     <t>K2</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +155,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +220,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +509,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,25 +627,65 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1995</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1977</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" s="3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\.git\myProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0714816-18CE-4BAC-A736-BE98CEBE43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4337376E-CCCC-48B2-A8DA-DB3FAAAEDAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>No:</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>O2</t>
+  </si>
+  <si>
+    <t>THE End…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +162,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +237,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +702,11 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" s="3"/>
     </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
